--- a/D6/data/news.xlsx
+++ b/D6/data/news.xlsx
@@ -164,302 +164,935 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>01300201.20211001024359002</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20211001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>강원일보</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>김도균</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[강릉]강릉 메타버스 클러스터 청사진 제시</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>문화&gt;문화일반</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>김한근</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>강릉,강원도</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>강릉,강릉시,강릉시장,세계합창대회,강릉시청</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>제시,강릉,메타버스,클러스터,청사진,기자간담회,김한근,시장,간담회,강릉,강릉시,내년,국제,대회,메타버스,결합,콘텐츠,단계적,계획,김한근,강릉,시장,30일,강릉시청,시민,사랑방,기자간담회,조성,메타버스,클러스터,국제,이벤트,관광자원,결합,청사진,제시,강릉,세계,합창,대회,메타버스,적용,각국,관객,공연,눈앞,경험,구상,2024년,강원도,협업,지속,고도화,2024동계,청소년올림픽,메타버스,클러스터,발휘,준비,설명,메타버스,클러스터,공간,강릉,스피드스케이팅,경기장,낙점,콘텐츠,거대,실내,공간,실내,실험,체험장,강릉,천혜,관광,자원,콘텐츠화,관광,도시,경쟁력,강화</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>강릉,메타버스,클러스터,김한근,경쟁력,기자간담회,청사진,간담회,각국,강릉시청,관광자원,강원도,고도화,2024동계,눈앞,청소년올림픽,경기장,사랑방,메타,스피드스케이팅,체험장,강릉시,콘텐츠화,콘텐츠,관광,시장,공간,국제,결합,실내,자원,대회</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>[강릉]강릉시가 내년부터 열릴 국제 대회에서 메타버스와 결합한 콘텐츠를 단계적으로 선보일 계획을 전했다.
+김한근 강릉시장은 지난 30일 오전 강릉시청 시민사랑방에서 기자간담회를 열고 메타버스 클러스터 조성 및 국제 이벤트 관광자원과의 결합에 대한 청사진을 제시했다. 
+ 올해 열리는 강릉 세계합창대회에서 메타버스 기술을 적용, 각국 관객들이 집에 앉아..</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>http://www.kwnews.co.kr/nView.asp?s=501&amp;aid=221093000105</t>
+        </is>
+      </c>
+      <c r="S2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01300201.20211001024250002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20211001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>강원일보</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>이현정</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[피플&amp;피플]춘천SF영화제 찾은 ‘기생충 번역' 달시 파켓 평론가</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>문화&gt;영화</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 문화&gt;전시_공연</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 문화&gt;방송_연예</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>김성호,남궁인,민규동,지대한,노윤선,김희경,신수원,김진유,박찬욱,김대환</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>춘천점,한국어린이청소년,한국,영화평론가,춘천,춘천SF영화제</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>다리소프트,국립춘천박물관,우미영,어도비,세이브더칠드런,롯데시네마</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>춘천SF영화제,기생충,번역,평론가,달시,파켓,분야,주목,전문가,참여,한국,독립,경쟁,심사,분야,영화인,스페셜,토크,참가자,각양각색,아동,의료,과학,경계,눈길,춘천점,롯데시네마,개막,춘천SF영화제,영화,현장,활동,전문가들,눈길,영화,기생충,감독,봉준호,아가씨,감독,박찬욱,영문,자막,번역,달시,파켓,영화,평론가,배우,한국독립SF,경쟁,심사위원,참여,국제,독립,SF,심사,칸국제영화제,베를린국제영화제,신수원,영화감독,무브,헤븐,무브,연출,김성호,감독,국제어린이청소년,심사,이외,김진유,강릉,감독,한국어린이청소년,김대환,춘천,감독,제작,지원,공모,심사,참가,작품,춘천점,롯데시네마,국립춘천박물관,스페셜토크,전문가들,아동,권리,영화,스페셜,토크,김희경,세이브더칠드런,본부장,남궁,의사,패널,참가,이날,노윤선,다리소프트,대표,우미영,어도비,코리아,대표,과학기술,발전,소수자,차별,이야기,민규동,감독,SF,시도,OTT,극장,경계,토크,영화제,4일,오프라인,8일,온라인,메타버스,136편,영화,상영</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>영화제,전문가,롯데시네마,한국독립,춘천,스페셜토크,달시,평론가,sf,참가자,파켓,기생충,춘천점,전문가들,온라인,메타버스,남궁,메타,본부장,소수자,오프라인,세이브더칠드런,어도비</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>‘한국독립 경쟁부문' 심사 맡아
+국내외 영화인들 각분야 함께해
+스페셜토크 참가자도 각양각색
+아동 의료 과학 경계넘어 눈길
+지난 30일 롯데시네마 춘천점에서 개막한 춘천SF영화제에는 영화계 현장에서 활발하게 활동 중인 전문가들이 대거 찾아 눈길을 끈다. 
+영화 ‘기생충(감독:봉준호)', ‘아가씨(감독:박찬욱) 등을 영문자막 번역한 달시파켓 영화평론가,..</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>http://www.kwnews.co.kr/nView.asp?s=201&amp;aid=221093000147</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>예외</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01300101.20210930001656002</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20210930</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>강원도민일보</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>유대균</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[목요단상] 강원교육의 현황과 나아갈 길</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>사회&gt;교육_시험</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 지역&gt;충남</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 지역&gt;대전</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>강원도,재구,강원도행복청</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>진로,강원교육,강원도행복청,에듀테크,강원도교육청,교육청</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>강원교육,현황,교육,인간,행동특성,변화,활동,평생교육,관점,교육,학교교육,미래,세대,역량,부여,그동안,강원,교육,문제점,노출,일제고사,생각,지필평가,도외시,학생들,학업,성취,수준,파악,교육체력,저질체력,과도,입시경쟁,사실,경쟁,교육,자체,교육,처사,학생들,열정,끈기,학생,인권,강조,교사들,교육활동,꼰대문화,갑질문화,치부,학교민주화,이름,추진,정책,교직원,화합,갈등,촉발,기제,교사들,열정,소명의식,학부모들,교사,일반,직장인,샐러리맨,강원교육,학생들,소질,사회,민주시민,역량,교사들,교육자,자긍심,보람,학부모,지역사회,신뢰,강원교육,변모,학교,교육,문화,풍토,강원도행복청,이름,강원도교육청,강원도행복청,선포,학생들,조금,풍토,교사,교육활동,학생들,학부모,갈등,유발,방치,수준,교사,열정,책임감,학교,역할,권한,부여,학교,자율성,책무성,강화,교직원,학교,지역사회,공감,소통,담장,교육,가치,학교문화,교육청,정책,제도,지원,요즘,기초학력,기초학력,한글,수준,기초,학력,확보,국가,책무,학교,존재,기초,학력,미달,비율,과목,11%,수능,결과,학업성취결과,최하위,수년,전국,평가,교육,경쟁교육,열등감,비교의식,패배감,교육,효과,경쟁,기제,자신,노력,경쟁의식,스스로,자존감,성취의식,끈기,결과,사회,고령,교육,대책,학생,교직원,학교,학생,교직원,7명,학교,보고,학교,학생들,지역사회,지자체,연계,교육,시설,구조,학교교육과정,각급학교,방과,교육,활동,돌봄활동,지자체,연계,교육체계,모색,4차,산업혁명,창의,융합,인재,육성,그동안,강원,교육,놀이시설,교실,디자인,사업,공감공간,혁신,주력,4차,산업혁명,대비,인프라,구축,미흡,실정,창의,융합,인재,육성,하루아침,코로나,학습격차,제기,에듀테크,메타버스,AI,인공지능,교육,STEAM교육,교육격차,학습,혁신,프로그램,소프트웨어,진로,직업교육,연계,검토,강원교육,교육인프라,교육프로그램,준비,사회,사람,사람,교육,미래,세대,선물,강원교육,변화,용트림,강원도민들,용기</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>교직원,학생들,강원교육,학부모,강원,강원도행복청,교사들,그동안,부여,교육활동,경쟁교육,지역사회,4차,최하위,지자체,메타버스,인공지능,에듀테크,학습격,학습격차,경쟁의식,일제고사,코로나,지필평가,자존감,산업혁명,직업교육,행동특성,입시경쟁,교육격</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>교육이란 인간의 행동특성을 바람직하게 변화시키는 것이요. 삶의 힘을 가꾸는 활동이다. 평생교육의 관점에서 보면 삶이 곧 교육일 수 있지만, 학교교육은 미래 세대에게 살아갈 역량을 키워주고, 꿈을 꾸게 하며, 살아갈 힘을 부여하는 것이다. 
+그동안 강원교육은 많은 문제점을 노출해왔다. 일제고사는 줄세우기라고 생각해 지필평가를 도외시해 학생들의 학업성취 ..</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>www.kado.net/news/articleView.html?idxno=1093113</t>
+        </is>
+      </c>
+      <c r="S4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>01300201.20210929024312002</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>20210929</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>강원일보</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>장현정</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[춘천]춘천 메타버스 산업 육성 ‘관 산 학' 머리 맞대</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>지역&gt;충남</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 지역&gt;대전</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 지역&gt;광주</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>강원테크노파크,춘천시,강원도,신산,춘천</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>춘천후평산업단지,강원대,강원창조경제혁신센터,산학협력</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>춘천,메타,버스,산업,육성,머리,맞대,강원대,용역,착수,보고회,기업,대학,협력,사업,추진,춘천,속보,춘천시,강원대,국제회의실,강원대,국제,회의실,메타,버스,산업,육성,전략,수립,용역,착수,보고회,본보,일자,보도,춘천시,메타,버스,산업,육성,방향,산업,전략,관심,이날,메타버스,가상융합경제,도시,춘천,비전,주민,행복,시민,경제,디지털,뉴딜,4가지,춘천시,중앙정부,지역대학,혁신기관,춘천시,메타,버스,산업,육성,구축,산학,협력,네트워크,강원대,더존ICT그룹,강원도,강원,창조,경제,혁신,센터,강원테크노,파크,연계,협력사업,추진,예정,기본,구상,산업,춘천시,메타,버스,집적,활성,촉진,메타,버스,행정,플랫폼,구축,춘천시,기업,지원,육성,플랫폼,춘천,메타테크,C-MT,개장,메타버스,전통,시장,춘천후평산업단지,스마트화,스마트그린바이오산업,육성,반려동물산업,연계,메타버스,육성,플랫폼,조성,분야,용역,내년,진행,결과,최종,용역,도출,육성,메타,버스,산업,발굴,활성화,산업,활성,언택트,활용,콘텐츠,제공,가능</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>메타버스,춘천시,춘천,강원대,메타,협력사업,활성화,네트워크,언택트,보고회,더존,강원도,춘천후평산업단지,스마트화,강원,지역대학,강원테크노</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>시-강원대 용역 착수보고회 
+도 기업 대학 협력사업 추진
+[춘천]속보=춘천시와 강원대가 28일 강원대 국제회의실에서 메타버스 산업 육성전략 수립 연구용역 착수보고회(본보 28일자 10면 등 보도)를 가졌다. 이에 따라 춘천시 메타버스 산업 육성방향 및 산업화 전략이 어떻게 세워질지에 관심이 모아지고 있다. 
+이날 시는 ‘메타버스 기반 가상융합경제 선..</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>http://www.kwnews.co.kr/nView.asp?s=501&amp;aid=221092800059</t>
+        </is>
+      </c>
+      <c r="S5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>01300201.20210928024327001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>20210928</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>강원일보</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>장현정</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[춘천]춘천시 메타버스 대표 도시 전략 구체화</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>지역&gt;울산</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 지역&gt;광주</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 지역&gt;경남</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>춘천시,춘천커피도시</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>춘천시,페스타,세울,강원대</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>춘천시,메타버스,대표,도시,전략,육성,전략,수립,용역,보고회,춘천,속보,강원형,메타,버스,산업,대표,도시,부상,춘천시,본보,보도,28일,국제회의실,강원대,국제,회의실,메타,버스,산업,육성,전략,수립,용역,착수,보고회,용역,메타,버스,산업,시장,동향,동향,조사,방향,춘천시,메타,버스,산업,육성,수립,산업,전략,용역,메타,버스,춘천시,선제,전략,마련,메타버스,XR,인력,양성,교육,프로그램,운영,전략,방침,춘천,커피,도시,페스타,플랫폼,온라인,메타버스,성공,춘천시,용역,내년,메타,버스,산업,육성,전략,밑그림,강원대,메타,버스,산업,육성,전략,수립,용역,협약,체결</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>메타버스,춘천시,메타,강원대,보고회,춘천,온라인,강원형,국제회의실,강원,회의실,밑그림,xr,전략,산업,용역,수립</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>[춘천]속보=‘강원형 메타버스 산업'의 대표 도시로 부상하고 있는 춘천시(본보 지난 9일자 10면 보도)가 28일 오후 1시 강원대 국제회의실에서 메타버스 산업 육성전략 수립 연구용역 착수보고회를 갖는다.
+이번 용역의 내용은 메타버스 산업 관련 국내외 시장 동향 및 기술 동향을 조사하고, 춘천시 메타버스 산업 육성 방향 및 산업화 전략 수립 등이다.
+..</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>http://www.kwnews.co.kr/nView.asp?s=501&amp;aid=221092700068</t>
+        </is>
+      </c>
+      <c r="S6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>01300201.20210927024602001</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>20210927</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>강원일보</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>정윤호</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>강원도-도내大 330억 국비 혁신사업 유치 사활</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>지역&gt;경기</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 지역&gt;전남</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 지역&gt;대전</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>최문순,김헌영</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>경북,내방,전북,강원도,부산,제주,대구</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>육성지원협의회,강원대,교육부</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>강원도,도내,사활,국비,혁신,사업,유치,권역,각축전,예고,강원대,주축,사업,추진,속보,330억,국비,지원,지자체,대학,협력,지역,혁신,사업,RIS,유치,경쟁,본보,7월,일자,보도,시작,교육부,내년도,예산안,1개,신규,사업비,반영,대구,경북,부산,전북,제주,권역,각축전,예고,교육부,지난달,내년도,예산안,지자체,대학,협력,지역,혁신,사업,예산,반영,선정,플랫폼,1,710억,지원,사업,신규,330억,책정,신규,사업,규모,국비,지원,예년,150억,광역지자체,복수형,지자체,단독,신청,단일,사업,부활,기회,지역혁신사업,균형발전,인재,지역,대학,지역산업,안착,개념,지자체,대학,기업,협력,구조,도내,대학,이달,지역,균형,인재,육성,지원,협의회,준비,내년,지역,혁신,사업,역할,논의,사업,추진,주축,강원대,이달,추가,협의,진행,예정,강원대,지사,최문순,총장,김헌영,강원대,내방,계기,선정,내년,지역,혁신,사업,약속,자리,강원대,의료기기산업,유치,계획,메타버스,활용,첨단,산업,육성,청사진,제시,관계자,연말,대학들,사업,콘셉트,계획,논의,내년,공고,유치,신청</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>강원대,지자체,지역혁신사업,330억,교육부,1개,040억,최문순,내년도,김헌영,대학들,예산안,040억,부산,경북,메타,전북</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>속보=330억원의 국비 지원이 걸린 지자체-대학 협력기반 지역혁신사업(RIS) 유치 경쟁(본보 7월22일자 4면 보도)이 다시 시작된다. 교육부가 내년도 예산안에 1개의 신규 사업비를 반영한 것으로 도를 비롯해 대구 경북, 부산, 전북, 제주 등 5개 권역이 각축전을 예고하고 있다. 
+도에 따르면 교육부가 지난달 발표한 내년도 예산안은 지자체-대학 협..</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>http://www.kwnews.co.kr/nView.asp?s=501&amp;aid=221092600019</t>
+        </is>
+      </c>
+      <c r="S7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>01300101.20210924001605003</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20210924</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>강원도민일보</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>데스크</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>강원도 SNS문화 발전을 기대하며</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>경제&gt;취업_창업</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 지역&gt;대전</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 지역&gt;충북</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>이촌,SNS문화진흥원,신사,초월,강원도,강원도민일보</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>강원랜드,평창동계올림픽,강원도,산학협력</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>발전,강원도,SNS,문화,강원도민일보,강원도,평창동계올림픽,육성,미래,먹거리,산업,일자,강원도,경제,산업,체질개선,국비,8조,확보,기사,강원도,코로나,시대,성장,디지털,4차,산업,바이오,청정수소산업,중점,육성,이달,신문,예산,내년,국비,사상,8조,소식,강원도,디지털,소통,해결,방안,제안,활성화,소상공인,지역,경제,활성,라이브,커머스,메이즈,좀비런,정착,생활,SNS,문화,산업,메타버스,매트릭스,시대,대비,인력,육성,교육,활성,지역,정책,방식,진행,정보,제공,종합,플랫폼,정보보호,공간,구축,정보,보호,활용방식,실제화,기관,CMS,컨텐츠,매니지먼트,서비스,다각화,활용,지역,단위,스마트그리드,유틸리티,전력,효율적,유지,데이터,센터,공감대,형성,SNS,분야,인플루언서,혁신,사업,SNS,창업,창직,강원랜드,지역,경제,활성,유치,미래,SNS,단순,사업,창출,통로,초월,거리,차이,소통,창구,SNS,활성,개인적,치부,국민,이목,집중,사건,이슈화,스튜디오,디지털,글로벌,강원도,유명,유튜버,오진균씨,산적,TV,밥굽,오진균,재능기부,진행,라이브커머스,청년농업인,생산,감자,박스,완판,전액,판매,수익금,기부,이웃사랑,실천,사회공헌,지역,사회,발전,기여,창구,SNS,긍정,활용,사회전반,방향,권장,도움,강원,청년들,이촌,현상,지역,미래,불투명,패스트,퍼스트,무버,강원도,주도,혁신,창조,강원도,성장동력,재창출,도민,도내,기업,공공SNS문화,활성화,디지털,혁명,청년,일자리,해소,지역경제,활성화,SNS문화,발전,디지털,민주주의,디지털,이코노믹,경제,디지털,거버넌스,활성화,사회,전반,경제발전,공익,실현,SNS문화진흥원,설립,SNS문화,연관,시장,산업,활성,마케팅,법제도,정책제언,기업,에이전트,브랜드,마케팅,전문인력,양성,인증,종사자,보호ㆍ지원,산학협력,방침,SNS문화,정부,SNS,문화,기업,단체,기관,교류,컨소시엄,활동,진행,예정,실의,강원도민들,어려움,극복,디지털,혁신,살길,SNS,영향력,확산,강원도민들,관심,참여</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>강원도,sns,활성화,sns문화,라이브커머스,지역경제,강원,8조,스마트그리드,소상공인,오진균씨,강원도민들,수익금,인플루언서,일자리</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>강원도민일보를 통해 강원도가 평창동계올림픽 이후 주춤한 미래 먹거리산업 육성을 위한다는 내용을 접했다.8월 11일자 ‘강원도 경제ㆍ산업 체질개선,국비 8조원 확보 나서’라는 기사를 보면 강원도가 코로나 시대 이후의 차기 성장동력으로 디지털 기반의 4차산업과 바이오,청정수소산업 등을 중점 육성하기로 했다는 내용이 나온다.이달 초 신문에는 내년 국비 예산이..</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>www.kado.net/news/articleView.html?idxno=1092328</t>
+        </is>
+      </c>
+      <c r="S8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>01300201.20210923024258001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20210923</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>강원일보</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>이현정</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[올가을 막 오르는 지역 영화제]독립영화 신작들이 쏟아진다</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>문화&gt;영화</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 문화&gt;전시_공연</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 문화&gt;방송_연예</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>김종재,이상희,박광수</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>강릉,춘천점,강릉씨네마떼끄,춘천독립,강릉정동진독립영화제,한국,춘천,춘천다큐멘터리영화제,강릉정동진독립영화제…춘천SF영화제</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>강원지역,유일,우지현,국립춘천박물관,강릉정동진독립영화제,정동초교,롯데시네마,춘천SF영화제,한국영상자료원</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>올가,지역,영화제,독립영화,신작들,강릉정동진독립영화제,춘천SF영화제,가을,초입,강원지역,영화제들,마련,8월,주말,여파,코로나19,확산,개최,이래,가을,강릉정동진독립영화제,23일,코로나19,확산,오프라인,상영,춘천SF영화제,30일,시작,우수,독립영화,소개,지역,영상문화,저변,확대,영화제,소개,강릉정동진독립영화제,정동초,23일,4일,초점,영화,상영,소개,강원지역,독립영화제,영화제,야외,상영,하늘,영화,바다,슬로건,영화제,23주년,강릉씨네마떼끄,한국영상자료원,주최,영화제,23일,정동초교,나흘간,강릉,30일,퍼플레이,여성,영화,OTT,특별상영,개막식,사회,배우,이상희,우지현,영화제,제작,지원,김종재,감독,영화,개막작,상영,특별,초청작,단편,장편,22편,소개,공연,강연,부대행사,취소,영화,상영,초점,집행위원장,박광수,영화제,집행,위원장,정동진독립영화제,중요,독립영화,관객들,영화제,본질,집중,춘천SF영화제,8회,유일,SF,영화제,30일,오프,동시,진행,2014년,사람,시작,춘천다큐멘터리영화제,영화제,8회,SF영화제,유일,SF,영화제,표방,30일,4일,롯데시네마,춘천점,국립춘천박물관,1일,8일,온라인,메타버스,플랫폼,상영,개막작,가가린,시작,경쟁,초청,136편,준비,독립SF,세계,각국,독립,SF,어린이청소년영화,현실,한국독립영화들,특별,부대행사,마련,영화인들,현실적,고민,라운드,테이블,Rebooting,춘천독립,과학기술,발전,배제,것들,문제점,토크,아동권리,스페셜토크,마련,개막,특별,행사,미래,아카이빙,포럼,영화산업,지형도,상황</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>영화제,춘천,코로나19,강릉정동진독립영화제,독립영화,단편,각국,sf영화제,퍼플레이,부대행사,8회,나흘간,강원지역,강릉,sf,박광수,춘천sf영화제,개막작,지형도,아카,이빙,스페셜토크,이상희,강릉씨네마떼끄,온라인,아카이빙,메타버스</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>가을 초입, 강원지역의 영화제들이 잇따라 풍성하게 마련된다. 매년 8월 초 주말에 열렸지만 코로나19 확산 여파로 개최 이래 처음으로 가을에 열리게 된 강릉정동진독립영화제가 23일 막을 올린다. 이어 코로나19 확산을 막기 위해 온 오프라인에서 상영하는 춘천SF영화제가 30일부터 시작된다.
+ 우수한 독립영화를 소개하고 지역의 영상문화의 저변 확대를 목..</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>http://www.kwnews.co.kr/nView.asp?s=601&amp;aid=221092200113</t>
+        </is>
+      </c>
+      <c r="S9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>01300101.20210917001654001</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>20210917</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>강원도민일보</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>김여진</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>추석이란 무엇인가? 정답은 당신 마음 속에</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>문화&gt;방송_연예</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 문화&gt;미술_건축</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 문화&gt;전시_공연</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>김,김영민</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>보름달,거창,장단,국립현대미술관,저도,집콕</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>미술은,디지털배움터,국립과천과학관,정치외교학부,유튜브,한국공예디자인문화진흥원,서울대,문체부,문화체육관광부,애니펜</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>추석,정답,마음,연휴,집콕,추석,법예술,교육,전시,프로그램,다채,유튜브,보름달,공개,관측회메타버스,활용,어린이,콘텐츠,김영민,서울대,정치,외교,학부,교수,죽음,생각,명문,추석,문장,의문문,2030세대,명절,시즌,회자,명절,빌미,주변인들,자신,근황,과도,관심,정면돌파,방편,제시,요즘,결혼,아기,남자,친구,직업,월급,교수,변죽,질문,반격,정체성,근본적,질문,제안,가족끼리,이야기,가족,2021년,명제,정말,추석,부터,질문,거리,명절,가을방학,외로움,며칠,고민,독자들,가지,제안,가족,끼리,상처,질문,서로,생각,밸런스,게임,제안,혼자,고요,명절,독자들,정리,추석,자녀들,명절,분위기,트렌드,메타버스,활용,프로그램,활용,비대면,집콕,문화,프로그램,준비,고개,페이지,영화,소개,작품,집콕,문화,취향,시대,2년,코로나19,확산,취향별,장르별,콘텐츠,문화생활,문체부,sim,26일,집콕문화생활,culture.go.kr,추석,맞이,특별,기획전,운영,국공립,문화,예술,기관,제공,공연,영상,전시,체험,콘텐츠,문화,예술,고전,영화,문화유산,ASMR,연령대,취향,콘텐츠,장구,타법,기본,장단,애니메이션,공연,예술,역사,소개,교육,연계,콘텐츠,연휴,생산적,전시장,작품,해설,랜선,전시,전시들,국립현대미술관,추천,전시,온라인,관람,매진,세례,특별전,이건희,컬렉션,미술은행,정부미술은행,소장품,기획전,평소,작품들,기회,영상,전시,투어,형태,큐레이터,설명,날씨,온라인,보름달,국립과천과학관,17일,유튜브,공개관측회,온라인,달과,공개,관측회,추석,진행,전설,동화,탐사,역사,이야기,목성,토성,실시간,관측,마련,아이들,메타버스,추석,가상세계,연휴,메타버스,metaverseㆍ확장,가상세계,플랫폼,전통문화,체험,문화체육관광부,한국공예디자인문화진흥원,17일,확장,가상,세계,공간,제페토,콘텐츠,전통문화,체험,자신,아바타,송편,투호놀이,세계,가입자,2억,제페토,사용자,70%,10대,1월,기준,정도,아동,청소년,세대,문화,자리,30일,진행,특별,행사,영상,전통문화,체험,음악,배경,삽입,드라마,뮤직비디오,브이로그,콘텐츠,자신,계정,인원제한,가족들,메타버스,디지털배움터,30일,추석맞이,가족,사진,자랑,진행,가족,모임,온택트,메타버스,플랫폼,진행,인증사진,방식,모바일,게임,추석,이벤트,진행,애니펜,sim,22일,AR,자사,게임,증강현실,캐릭터,키즈,AR,모바일,게임,뽀로로월드,AR,소꿉놀이,로보카폴리,월드,AR,캐치,티니핑,AR,미니특공대,월드,아이템,추석,한정,판매,이벤트,준비,김여진,한승미</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>메타버스,비대면,온라인,집콕,ar,전통문화,유튜브,제페토,보름달,문화생활,sim,기획전,추석맞이,가상세계,문화유산,이건희,서울대</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>집콕 추석 연휴 잘 지내는 법예술 교육 전시 프로그램 다채유튜브로 보름달 공개 관측회메타버스 활용 어린이 콘텐츠 김영민 서울대 정치외교학부 교수가 쓴 책 ‘아침에는 죽음을 생각하는 것이 좋다’를 보면 명문이 나온다.‘추석이란 무엇인가’. 
 거창한 문장이 아니다.아주 짧은 의문문일 뿐임에도 불구하고 2030세대에서 명절 시즌만 되면 회자되고 있다.명절을..</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>www.kado.net/news/articleView.html?idxno=1091811</t>
         </is>
       </c>
-      <c r="S2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="S10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>01300201.20210916024411001</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>20210916</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>강원일보</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>고달순</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>[강릉]인터포 지역특화산업육성 공모 선정</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>IT_과학&gt;모바일</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t xml:space="preserve"> 지역&gt;울산</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve"> 지역&gt;충북</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>상주간,강원도,월정사,오대산</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>인터포,Mou,(주)인터포,중소벤처기업부</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>인터포,지역,특화,산업,육성,공모,선정,강릉,강릉,전문기업,소재,솔루션,전문,기업,인터포,중소벤처기업부,주관,지역,특화,산업,육성,R&amp;D,공모사업,선정,인터포,메타버스,힐링,콘텐츠,제공,디지털,라이프,서비스,플랫폼,사업,신청,최종,선정,사업,메타,버스,플랫폼,실감,힐링,콘텐츠,제공,원격,사용자,공존감,현실공간,가상공간,원격공간,통합,혼합,공간,체험,플랫폼,인터포,오대산,월정사,업무협약,8월,강원,세계,청소년,명상,주간,HMD,Head,Mounted,Display,활용,메타버스기반,VR,힐링,콘텐츠</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>인터포,메타버스,힐링,전문기업,사용자,강릉,기업부,업무협약,월정사,현실공간,강원,공모사업,공존감,메타버스기반,원격공간,가상공간,오대산,중소벤처기업부,메타,vr,head,mounted,display,hmd,플랫폼,공간,소재,원격,공모,제공,선정,사업</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>[강릉]강릉 소재 IT솔루션 전문기업 (주)인터포가 최근 중소벤처기업부에서 주관하는 ‘2021년 지역특화산업육성+(R&amp;D)' 공모사업에 선정됐다. 
  인터포는 ‘메타버스 기반의 힐링콘텐츠 제공을 위한 디지털 라이프 서비스 플랫폼 개발' 사업을 과제로 신청해 최종 선정됐다.
 이 사업은 메타버스 플랫폼을 통해 실감형 힐링콘텐츠를 제공, 원격 사용자 간에..</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>http://www.kwnews.co.kr/nView.asp?s=501&amp;aid=221091500099</t>
         </is>
       </c>
-      <c r="S3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="S11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>01300201.20210910024237001</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>20210910</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>강원일보</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>[언중언]메타버스의 미래</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>문화&gt;문화일반</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t xml:space="preserve"> IT_과학&gt;모바일</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve"> IT_과학&gt;콘텐츠</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>신형철</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>우주,일본,초월</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>메타버</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>메타버스,미래,현실세계,사회,경제,문화,활동,가상,세계,혁신적,돌풍,메타버스,Metaverse,사전,의미,가상,초월,메타,영어,단어,Meta,우주,유니버스,Universe,합성어,메타버스,미래,먹거리,세계적,주목,먹거리,과거,미래,부상,사업,휴대전화,방송,DMB,손안,TV,주목,입체,영상,3DTV,돌풍,주역,현실,이미지,배경,이미지,가상,영상,증강현실,혁신적,신기술,증강현실,활용,게임,포켓몬고,2016년,세계,동영상,360도,회전,비디오,VR,일종,가상현실,주목,산업,시대상,결국,산업,가치,지속적,유지,주류,전락,무선,인터넷,발달,휴대전화,DMB,시청,영상,영화,제외,TV,시청,방송사들,콘텐츠,별도,제작,정도,메타버스,미래,성공,실패,실패,원인,과거,사례,확인,DMB,3DTV,,메타버스,기대치,성공,확률,공각기동대,일본,애니메이션,1995년,세계적,세계,강타,무렵,메타버스,개념,매트릭스,써로게이트,레디,플레이어,메타버스,산업,가치,부여,영화,메타버스,미래,산업,과거,혁신,실패,전철,성공,기원,신형철경제부장,chiwoo1000</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>메타버스,360도,메타,휴대전화,dmb,일본,증강현실,방송사,tv,손안,신형철경제부장,매트릭스,써로게이트,방송사들,신형철,vr,합성어,동영,포켓몬고,공각기동대,가상현실,부여,시대상</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>‘현실세계와 같은 사회 경제 문화 활동이 이뤄지는 3차원 가상세계.' 최근 혁신적인 기술로 돌풍을 일으키고 있는 메타버스(Metaverse)에 대한 사전적 의미다. 가상, 초월 등을 뜻하는 영어 단어 ‘메타'(Meta)와 우주를 뜻하는 ‘유니버스'(Universe)의 합성어인 메타버스는 벌써부터 미래 먹거리로 전 세계적인 주목을 받고 있다. ▼과거 미래..</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>http://www.kwnews.co.kr/nView.asp?s=301&amp;aid=221090900118</t>
         </is>
       </c>
-      <c r="S4"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="S12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>01300201.20210910024231001</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>20210910</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>강원일보</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>[The 초점]이제는 메타버스 올림픽이다</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>문화&gt;출판</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t xml:space="preserve"> 문화&gt;미술_건축</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>신사임당,율곡,허난설헌,허균,구도장원공,교산,서거정,마의태자</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>명주,강릉,신산,협곡,인도해,진고개,동해,수도권,동대산,영봉,초월,소금강,연곡천,청학동,운해,노인봉,대한민국,철갑령,오대산국립공원</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>강릉,신라,동해 바다,현대,연곡천,오대산,대국,ITS 세계총회</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>메타버스,올림픽,강릉,인문,자원,풍부,메타버스,성지,중심지로,미래,중심,지로,강릉,바다,계곡,호수,명산대천,名山大川,계절,모습,자연,모습,탄성,선생,조선,시대,서거정,한마디,강릉,절경,천하,으뜸,강릉산수갑천하,江陵山水甲天下,자연,인문자원,율곡,선생,혜안,교산,허균,개혁정신,신사임당,향기,허난설헌,영감,세계,현대인들,인문학,세계,인도,자연조건,조상들,음우,陰佑,발전,이젠,지역,가치,조명,의미,부여,실효성,정책,연결,필자,도쿄올림픽,패럴림픽,준비,올림픽,소개,메타버스,올림픽,세계화,진전,국가,경쟁,심화,역사,문화,전통,고유,발전,잠재력,도시,지역,중요성,강릉,인문학,매력도,만큼,연결,강릉,메타버스,성지,혁신적,플랫폼,강릉,메타,버스,조성,의미,메타버스,가상,초월,의미,meta,공간,세계,universe,합성어,디지털,실재감,實在感,실현,가상,공간,지칭,석학,메타버스,등장,일상생활,친숙,사용,SNS,온라인게임,디지털,플랫폼,현실세계,가상세계,메타버스,얘기,수도권,가능,부가,가치,ICT,산업,재택근무,일상,공간,초월,메타버스,강릉,가능,시대,강릉,접목,가능,메타버스,헬스케어,이모빌리티,문화예술,관광,소상공인,가능,세계,총회,후보지,강릉,메타버스,올림픽,정책,최적지,판단,연곡천,連谷川,역사,발전,잠재력,메타버스,적용,가능,연곡천,오대산,봉우리,동대산,노인봉,사이,진고개,발원,오대산국립공원,상류지역,서쪽,동쪽,동해,길이,20.4,철갑령,산지,협곡,기암절벽,풍광,연곡천,바다,지점,동해,바다,관광객,바다,접점,연곡천,생태하천,정비,미디어아트,메타버스,재해석,생태하천,탈바꿈,제1호,대한민국,명승,명주,청학동,소금강,메타버스,가미,인문학,극락,청학,靑鶴,운해,雲海,영봉,靈峯,구도장,원공,율곡,탐방,조성,마의태자,와신상담,신라,부활,병사들,식당암,바둑판,선명,실제,대국,부족,암각,바둑판,시인,묵객,방문,장소,메타버스,탄생,지역,가치,의미,부여,미래,중심지</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>메타버스,강릉,연곡천,율곡,바둑판,인문학,동해,서거정,후보지,인문자원,풍부,대한민국,생태하천,매력도,부여,만큼,잠재력,메타,온라인게임,친숙,신라,진고개,병사들,와신상담,개혁정신</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>강릉은 인문자원 풍부 
 메타버스 성지 만들어 
@@ -467,80 +1100,80 @@
 강릉은 산, 바다, 계곡, 호수 가는 곳마다 명산대천(名山大川)이 아닌 곳이 없고, 계절마다 모습을 달리하는 자연의 모습이 탄성을 자아내게 한다. 조선시대 서거정 선생은 이를 두고, 한마디로 ‘강릉의 절경이 천하 으뜸'이라 해 ‘강릉산수갑천하(江陵山水甲天下)'를 읊게 된다. 자연뿐만 ..</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>http://www.kwnews.co.kr/nView.asp?s=1101&amp;aid=221090900110</t>
         </is>
       </c>
-      <c r="S5"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="S13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>01300201.20210909024417001</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>20210909</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>강원일보</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>장현정</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>[춘천]‘메타버스 도시'로 급부상하는 춘천시</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>IT_과학&gt;콘텐츠</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t xml:space="preserve"> 지역&gt;울산</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve"> 지역&gt;경남</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>김흥성</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>미래도시,우주,춘천시,춘천커피도시페스타,삼악산,소양강</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>강원정보문화진흥원,로프웨이,춘천시,강원대,메타버</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>메타버스,도시,급부상,춘천시,메타버스,플랫폼,활용,축제,조회,100만,기록,인기,강원대,협약,산업,육성,춘천,춘천시,산업,강원형,메타,버스,대표,도시,부상,메타버스,가상,메타,영어,단어,Meta,우주,유니버스,Universe,현실세계,활동,가능,3차원,가상세계,코로나19,속도,비대면,온라인,발달,온라인,세계적,관심,신기술,도내,메타버스,플랫폼,활용,춘천커피도시페스타,진행,춘천커피도시페스타,조회,온라인,메타버스,플랫폼,누적,100만,초대박,행진,메타,버스,플랫폼,확대,발전,지역관광산업,연계,계획,강원,정보,문화,진흥원,관계자,춘천커피도시페스타,온라인,메타버스,플랫폼,접속,소양강처녀상,삼악산,로프웨이,지역,관광지,플랫폼,커피,도시페,스타,메타,버스,지역,관광지,구성,메타,버스,플랫폼,구축,사업,추진,강원대,협약,메타,버스,산업,육성,전략,수립,용역,체결,연구용역,미래,도시,춘천시,선제,전략,마련,구상,지역,메타버스,콘텐츠,제작,기업,지원,육성,원장,강원정보문화진흥원,김흥성,메타버스,시장,성장,세대,공간,전국적,메타버스,주목,지역,한계,극복,활용</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>메타버스,춘천시,메타,온라인,춘천커피도시페스타,강원정보문화진흥원,100만,강원대,관계자,연구용역,춘천,강원형,관광지,김흥성,현실세계,3차원,삼악산,소양강처녀상,신기술,강원,진흥원</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>메타버스 플랫폼 활용 축제
 조회 수 100만뷰 기록 인기
@@ -549,789 +1182,789 @@
 메타버스는 ‘가상' 등을 뜻하는 영어 단어 ‘메타(Meta)'와 우주를 뜻하는 ‘유니버스(Universe)'를 합친 말로 현실세계와 같은 활동이 가능한 3차원의 가상세계다. 코로나19에 의해 속도..</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>http://www.kwnews.co.kr/nView.asp?s=501&amp;aid=221090800075</t>
         </is>
       </c>
-      <c r="S6"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="S14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>01300201.20210908024413001</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>20210908</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>강원일보</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>최기영</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>내년 강원세계산림엑스포 ‘메타버스' 플랫폼 구축</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>지역&gt;전남</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t xml:space="preserve"> 지역&gt;강원</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve"> 지역&gt;경남</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>강원세계산림엑스포,최문순</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>속초,송이밸리자연휴양림,설악산자생식물원,토성면,양양,만해마을,인제,고성군</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>조직위,제페토</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>메타버스,내년,강원세계산림엑스포,플랫폼,구축,2022강원세계산림엑스포,메타버스,Metaverse,최문순,강원도,지사,조직위,강원세계산림엑스포,엑스포,기본,실행,계획,점검,조직위,내년,엑스포,기간,로블록스,제페토,메타,버스,플랫폼,세계,산림,유니버스,구축,계획,콘텐츠,로블록스,10억,제페토,6억,소요,행사장,스카이워크,산림슬라이드,체험시설,랜드마크,전망대,조성,최대,수용,규모,강원세계산림엑스포,세계,인류,미래,산림,주제,6월,33일,세계잼버리수련장,고성군,토성면,세계,잼버리,수련장,속초,설악산,자생,식물원,만해마을,양양,송이밸리자연휴양림,전시,체험,학술행사,진행,예정</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>강원세계산림엑스포,로블록스,메타버스,제페토,조직위,최문순,전망대,고성군,토성면,만해마을,식물원,양양,스카이워크,행사장,송이밸리자연휴양림,설악산,강원도,학술행사,수련장,체험시설,6억,산림슬라이드,세계잼버리수련장,잼버리,메타,10억,2022강원세계산림엑스포,000명,랜드마크,metaverse,산림,세계</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>2022강원세계산림엑스포에 메타버스(Metaverse)를 도입한다.
 최문순 강원도지사는 7일 강원세계산림엑스포 조직위 등과 함께 엑스포 기본실행계획을 점검했다.
 조직위는 내년 엑스포 기간 로블록스 또는 제페토 등의 메타버스 플랫폼에 세계 최초의 산림 유니버스를 구축한다는 계획이다. 맵과 콘텐츠 등을 구현하는데 로블록스는 10억원 이상, 제페토는 6억..</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>http://www.kwnews.co.kr/nView.asp?s=101&amp;aid=221090700083</t>
         </is>
       </c>
-      <c r="S7"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="S15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>01300201.20210907024352002</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>20210907</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>강원일보</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>김도균</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>[강릉]“강릉 문화자원 - 메타버스 연계 시장 선점”</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>지역&gt;경남</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t xml:space="preserve"> 지역&gt;경북</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve"> 지역&gt;충남</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>허난설헌,허균,이종영</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>오죽헌,강릉시,경기,강원도,신산,경포,강릉과학산업진흥원</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>한국과학창의재단,강릉,유네스코,강릉시,한국위원회,강릉시장,한국교육학술정보원,강릉과학산업진흥원</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>강릉,문화,자원,메타버스,연계,시장,선점,강릉과학산업진흥원,토론회,강릉,강릉시,미래,메타버스,Metaverse,강릉,관광,문화,자산,연결,블루오션,선점,의지,강릉과학산업진흥원,메타버스,협업,발굴,추진,토론회,개최,토론회,강릉시,강원도,한국교육학술정보원,유네스코,한국,위원회,기업,메타버스,핵심,그리드,한국과학창의재단,관계자들,참석,메타버스,과학,문화,도시,협업,논의,김한근,강릉,시장,메타버스,관광산업,연계,효과,배가,자연환경,문화,자산,강릉,최적지,화두,메타버스,콘텐츠,스피드스케이팅,경기장,거대,실내공간,토론,센터장,이종영,강릉과학산업진흥원,강릉,오죽헌,허난설헌,허균,경포,콘텐츠화,문화자원,유리</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>메타버스,강릉,강릉과학산업진흥원,토론회,강릉시,유네스코,김한근,이종영,문화자원,실내공간,한국과학창의재단,관계자들,허균,경기장,경포,그리드,관계자,허난설헌,한국교육학술정보원,한국,스피드스케이팅,콘텐츠화,강원도,자연환경,오죽헌,위원회,블루오션,메타,최적지,센터장,관광산업</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>[강릉]강릉시가 미래 신산업으로 떠오르고 있는 메타버스(Metaverse)와 강릉의 관광문화 자산을 연결, 블루오션을 선점하겠다는 의지를 드러냈다.
 강릉과학산업진흥원은 지난 3일 메타버스 협업과제 발굴 및 추진 토론회를 개최했다. 
  이날 토론회에는 강릉시, 강원도, 한국교육학술정보원, 유네스코 한국위원회, 메타버스 핵심기술 기업인 ㈜그리드, 한국과..</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>http://www.kwnews.co.kr/nView.asp?s=501&amp;aid=221090600033</t>
         </is>
       </c>
-      <c r="S8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="S16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>01300201.20210906024112001</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>20210906</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>강원일보</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>김수빈</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>춘천의 커피향기 한 폭에 담아</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>문화&gt;전시_공연</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t xml:space="preserve"> 문화&gt;미술_건축</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve"> 문화&gt;출판</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>이병도,김선옥,윤일숙,심춘옥</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>장르,춘천</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>강원정보문화진흥원,춘천시,Sk,춘천</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>춘천,커피향기,카페,춘천,커피페스타,기념,지역,카페들,조명,특별,전시회,춘천시,주최,강원정보문화진흥원,2월,화실,주관,카페,토이로봇관,갤러리툰,축제,커피,도시,춘천,조우,주제,마련,전시,50여개,지역,카페,작품,이병,디자이너,김선옥,심춘옥,윤일숙,9명,작가,참여,작가들,메타,버스,플랫폼,VR,110여개,카페,신청,그중,장소,선별,방문,화면,기록,거두퇴계,구봉산,소양강댐,육림고개,호수길,카페들,80여점,작품,관람객,공간들,어반,스케치,Urban,Sketch,장르,스케치,커피,향기,날씨,재현,감동,전시,시작,축제,참가,카페들,일상,기록,아카이브,구축,예정</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>춘천,갤러리툰,카페들,토이로봇관,강원정보문화진흥원,춘천시,심춘옥,김선옥,전시회,소양강댐,윤일숙,구봉산,육림고개,공간들,그중,9명,메타,어반,거두퇴계,작가들,이병,관람객,110여개,호수길,50여개,커피페스타,80여점,커피향기,sketch,vr,urban,카페,커피,플랫폼,작가,스케치,전시,기록,축제,작품,지역</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>춘천 커피페스타를 기념해 지역의 카페들을 조명한 특별한 전시회가 열렸다. 춘천시가 주최하고 강원정보문화진흥원과 2월의 화실이 주관한 ‘아름다운 카페'展이 지난 3일 토이로봇관 3층 갤러리툰에서 첫 축제의 막을 올렸다.
 ‘커피도시 춘천과의 조우'를 주제로 마련된 이번 전시는 50여개의 지역 카페를 작품으로 만난다. 이병도 디자이너와 함께 김선옥 심춘옥 ..</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>http://www.kwnews.co.kr/nView.asp?s=601&amp;aid=221090500132</t>
         </is>
       </c>
-      <c r="S9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="S17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>01300101.20210906001612003</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>20210906</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>강원도민일보</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>오세현</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>국내 첫 메타버스 활용 '커피도시 춘천' 선포</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>지역&gt;경남</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t xml:space="preserve"> 지역&gt;대전</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve"> 지역&gt;제주</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>최양희,김중석,김헌영,이재수</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>춘천시의장,황환주,춘천커피,춘천커피도시,강원도민일보,춘천</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>춘천시장,세미나,네이버,강원정보문화원장,춘천커피도시 페스타,한림대,강원대,춘천</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>메타버스,활용,커피,도시,춘천,선포,19일,플랫폼,춘천,커피,도시,페스타카페,VR,플랫폼,박람회,체험,커피,도시,춘천,춘천,커피,도시,페스타,개막,19일,박물관,애니메이션,개막식,이재수,시장,황환주,춘천시의장,김헌영,강원대,총장,최양희,한림대,총장,김중석,강원도민일보,사장,대표,지역,커피,업체,참석,이날,개막식,춘천,커피,도시,브랜드,선포식,오픈식,메타,버스,플랫폼,눈길,플랫폼,춘천,커피,도시,메타,버스,카페거리,춘천,춘천,카페,소개,춘천,렛츠,커피,춘천,카페,렛츠,카페,축제,참여,110여개,카페,VR,렛츠,VR,메타버스,춘천커피도시,렛츠,메타,버스,19일,토요일,일요일,애니메이션,박물관,일대,박람회,Coffee,춘천,박람회,세상,커피,체험,워터소믈리에,홈카페,마스터,세미나,감성,커피,콘서트,매직콘서트,커피,퀴즈쇼,문화콘텐츠,코로나19,확산,방지,프로그램,선착순,프로그램,네이버,예약,진행,춘천,커피,도시,페스타,주관,김흥성,강원,정보,문화원장,춘천,커피,도시,페스타,메타,버스,플랫폼,오프라인,진행,ICT,페스타,사회적,거리,장기화,지역,커피업,소상공인들,상황,타개,춘천,커피,도시,메타버스,온라인,홍보,강화,춘천,커피,도시,브랜드,육성,박람회,개최,이재수,춘천,시장,커피,전국,춘천,역사,콘텐츠,명실상부,커피,도시,춘천,커피,도시,페스타,커피도시,역사,계기</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>춘천커피도시,춘천,메타버스,박람회,커피도시,이재수,메타,개막식,vr,페스타카페,김흥성,코로나19,네이버,일요일,박물관</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>19일까지 춘천커피도시 페스타카페 110여곳 VR 플랫폼 구현매주 토 일 박람회 체험 다채 ‘커피도시 춘천’을 알리는 춘천커피도시 페스타가 지난 3일 개막,19일까지 펼쳐진다. 
 3일 애니메이션 박물관에서 열린 개막식에는 이재수 시장,황환주 춘천시의장,김헌영 강원대 총장,최양희 한림대 총장,김중석 강원도민일보 사장 등을 비롯해 지역 커피업체 대표 등이..</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>www.kado.net/news/articleView.html?idxno=1089895</t>
         </is>
       </c>
-      <c r="S10"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="S18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>01300101.20210905161913001</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>20210905</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>강원도민일보</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>이성찬</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>메타버스 로봇바리스타와 함께하는 '춘천커피도시 페스타' 개막</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>지역&gt;경남</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t xml:space="preserve"> 지역&gt;제주</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve"> 지역&gt;강원</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>춘천커피,춘천</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>세미나,페스타</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>메타버스,로봇바리스타,춘천,커피,도시,페스타,개막,춘천,커피,도시,페스타,애니메이션,박물관,일원,개막식,19일,일요일,일대,애니메이션,박물관,박람회,세상,커피,체험,워터소믈리에,홈카페,마스터,세미나,감성커피,콘서트,매직콘서트,커피퀴즈쇼,문화콘텐츠,메타,버스,플랫폼,카페거리,지역,카페,소개,렛츠,커피,춘천,춘천,카페,렛츠,카페&amp;,110여,카페,VR,렛츠,VR&amp;,커피도시,렛츠,메타버스&amp;,한자리,촬영</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>메타버스,박물관,춘천,홈카페,한자리,워터소믈리에,문화콘텐츠,감성커피,커피도시,매직콘서트,메타,개막식,카페거리,일요일,박람회,로봇바리스타,커피퀴즈쇼,vr,110여,커피,렛츠,카페,애니메이션,페스타,콘서트,플랫폼,지역,일원,도시,마스터,세미나,문화,매직,콘텐츠,버스,체험,퀴즈</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>춘천커피도시 페스타가 지난 3일 애니메이션 박물관 일원에서 개막식을 갖고 19일까지 매주 토, 일요일에 맞춰 애니메이션 박물관 일대에서 열립니다. 
 이번 박람회에는 세상에 하나뿐인 커피 만들기 체험을 비롯해 워터소믈리에ㆍ홈카페 마스터 세미나, 감성커피 콘서트, 매직콘서트, 커피퀴즈쇼 등의 문화콘텐츠가 열립니다. 
 특히 메타버스 플랫폼을 통해 지역 5..</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>www.kado.net/news/articleView.html?idxno=1089835</t>
         </is>
       </c>
-      <c r="S11"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="S19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>01300101.20210904162622001</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>20210904</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>강원도민일보</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>오세현</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>춘천커피도시 페스타 개막 메타버스로 춘천커피 '한 눈에'</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>지역&gt;경남</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t xml:space="preserve"> 지역&gt;대전</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve"> 지역&gt;제주</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>최양희,김중석,김헌영,이재수</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>춘천시의장,황환주,춘천커피,춘천커피도시,강원도민일보,홈,춘천박람회,춘천</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>세미나,네이버,강원정보문화원장,페스타,춘천커피도시 페스타,한림대,강원대,춘천</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>개막,춘천,커피,도시,페스타,메타버스,춘천커피,선포식,춘천,커피,도시,브랜드,일원서,메타,버스,플랫폼,오픈식춘,천애니메이션,박물관,일원서,춘천,Coffee,춘천,박람회,개최,커피,도시,춘천,커피,도시,페스타,애니메이션,박물관,일원,개막식,19일,박물관,애니메이션,개막식,이재수,시장,황환주,춘천시의장,김헌영,강원대,총장,최양희,한림대,총장,김중석,강원도민일보,사장,대표,지역,커피,업체,참석,이날,개막식,춘천,커피,도시,브랜드,선포식,오픈식,메타,버스,플랫폼,눈길,플랫폼,춘천,커피,도시,메타,버스,카페거리,춘천,춘천,카페,소개,춘천,렛츠,커피,춘천,카페,렛츠,카페,축제,참여,110여개,카페,VR,렛츠,VR,메타버스,춘천커피도시,렛츠,메타,버스,4일,19일,토요일,일요일,애니메이션,박물관,일대,박람회,Coffee,춘천,박람회,세상,커피,체험,워터소믈리에,홈카페마스터,세미나,감성,커피,콘서트,매직콘서트,커피,퀴즈쇼,문화콘텐츠,코로나19,확산,방지,프로그램,선착순,프로그램,네이버,예약,진행,춘천,커피,도시,페스타,주관,김흥성,강원,정보,문화원장,춘천,커피,도시,페스타,메타,버스,플랫폼,오프라인,진행,ICT,페스타,사회적,거리,장기화,지역,커피업,소상공인들,상황,타개,춘천,커피,도시,메타버스,온라인,홍보,강화,춘천,커피,도시,브랜드,육성,박람회,개최</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>춘천,춘천커피도시,메타버스,박물관,개막식,메타,박람회,coffee,코로나19,김흥성,네이버,일요일</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>3일 춘천 커피도시 브랜드 선포식과 메타버스 플랫폼 오픈식춘천애니메이션 박물관 일원서 Let's Coffee 춘천박람회 개최 ‘커피도시 춘천’을 알리는 춘천커피도시 페스타가 3일 애니메이션 박물관 일원에서 개막식을 갖고 19일까지 펼쳐진다. 
 3일 애니메이션 박물관에서 열린 개막식에는 이재수 시장,황환주 춘천시의장,김헌영 강원대 총장,최양희 한림대 총..</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>www.kado.net/news/articleView.html?idxno=1089792</t>
         </is>
       </c>
-      <c r="S12"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="S20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>01300201.20210903030142001</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>20210903</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>강원일보</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>김도균</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>[강릉]메타버스 추진 토론회</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>지역&gt;경남</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t xml:space="preserve"> IT_과학&gt;IT_과학일반</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve"> 지역&gt;제주</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>강릉시,강릉과학산업진흥원</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>과학기술정보통신부,한국과학창의재단</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>토론회,메타버스,추진,강릉,강릉시,한국과학창의재단,과학기술정보통신부,산하,3일,강릉과학산업진흥원,과학문화도시,발굴,메타버스,협업,체제,추진,토론회,개최</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>메타버스,강릉과학산업진흥원,과학기술정보통신부,토론회,과학문화도시,강릉시,한국과학창의재단,강릉,추진,산하,과학,문화,도시,체제,협업,발굴,개최</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>[강릉]강릉시와 과학기술정보통신부 산하 한국과학창의재단은 3일 오후 2시 강릉과학산업진흥원에서 과학문화도시와 메타버스 협업체제 발굴 및 추진을 위한 토론회를 개최한다.
 김도균기자 droplet@kwnews.co.kr</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>http://www.kwnews.co.kr/nView.asp?s=501&amp;aid=221090200060</t>
         </is>
       </c>
-      <c r="S13"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="S21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>01300101.20210903001623006</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>20210903</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>강원도민일보</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>박지은</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>정선 폐광촌 골목길 '3차원 가상세계' 구축, Z세대 끌어모은다</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>지역&gt;경남</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t xml:space="preserve"> 지역&gt;전북</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve"> 지역&gt;강원</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>고한읍,정선,삼척탄좌,신사,탄광,전북,강원도,고한,만남,도심,한옥마을</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>야생화 마을,고한읍,정부,정암광업소,전주시,탄광,추리극장,강원도,고한</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>가상세계,정선,폐광촌,골목길,가상,세계,구축,Z세대,생존,기로,폐광지,5.,메타버스,만남,폐광,지역,정선,18번,일대도시재생,야생화,마을,변모,메타버스,가상,세계,메타버스,Meta,Universe,방안,검토,정부,정책,석탄,산업,합리,인구,유출,현상,도심,공동,심화,폐광지역,대체,사업,발굴,일환,강원도,폐광지역,메타버스,접목,시대,변화,폐광지역,계획,메타버스,접목,메타,버스,검토,대상지,정선,폐광천,18번,1985년,고한읍,탄광촌,과거,대표,시행,석탄,산업,합리,정책,쇠락,삼척탄좌,정암광업소,마지막,탄광,고한시장,길목,18리,침체,상가,폐공가,인구,지역,주민,단체,주도,18번,마을,위원회,출범,18리,상가,수리,출판사,마을,활기,시작,도시,재생,뉴딜,사업,일대,야생화,마을,변모,호텔,야생화,마을,추리,극장,조성,주민,주도,비즈니스,모델,폐광촌,고한,18번,기적,고한읍,개장,18번,지역,민박,식당,세탁소,사진관,마을,골목길,서비스,시설,플랫폼,연결,골목상권,활성화,전국,최고,도시,재생,모델,메타버스,18번,중심,폐광지역,접목,폐광지역,신사업,추진,방안,심도,검토,전북,전주시,메타버스,글로벌,플랫폼,제페토,활용,한옥마을,지역,명소,홍보,강원도,특색,아이템,가상세계,접목,가상공간,폐광지역,소셜,활동,Z세대,sim,20대,놀이터,활용,계획,관계자,폐광지역,메타버스,만남,시대,요구,폐광지역,대체사업,이색적,추진,방안,검토,현장실사,진행,예정</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>18번,폐광지역,메타버스,정선,골목길,야생화,고한읍,강원도,고한,가상세계,신사업,폐광촌,메타,정암광업소,대체사업</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>[생존 기로에 선 폐광지] 5. 폐광지역과 메타버스의 만남폐광지역 정선 고한 18번가 일대도시재생 통해 '야생화 마을' 변모도, 메타버스 기술 접목 플랫폼 추진 폐광지역에 3차원 가상세계,‘메타버스(Meta+Universe)’ 기술을 도입하는 방안이 검토된다.정부의 석탄산업 합리화 정책 이후 급격한 인구 유출로 도심 공동화 현상이 심화된 폐광지역의 대체..</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>www.kado.net/news/articleView.html?idxno=1089697</t>
         </is>
       </c>
-      <c r="S14"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="S22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>01300201.20210902024137001</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>20210902</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>강원일보</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>이현정</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>[춘천]춘천영화제 ‘SF영화제'로 30일 개막</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>문화&gt;영화</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t xml:space="preserve"> 문화&gt;전시_공연</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>남궁인,지대한,김희경,김아영,김진유,이안,김대환</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>춘천영화제,한국,춘천SF영화제</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>춘천영화제,유일,롯데시네마춘천점,춘천시청,국립춘천박물관,프로그래머,(사)춘천영화제,세이브더칠드런</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>춘천,영화제,SF,영화제,개막,독립영화,상영,춘천,유일,SF,영화제,표방,춘천영화제,명칭,춘천SF영화제,개막,춘천영화제,춘천시청,기자회견,홍보대사,배우,유튜버,킴닥스,위촉,영화,기생충,파켓,번역가,달시,김대환,김진유,감독,구성,영화제,심사,위원,김아영,감독,포스터,공개,영화제,개막작,가가린,시작,경쟁,초청,136편,소개,독립SF,세계,각국,독립,SF,어린이청소년영화,현실,한국독립영화들,4일,롯데시네마춘천점,국립춘천박물관,1일,8일,온라인,메타버스,플랫폼,상영,사전,행사,퓨처,시리즈,상영,SF,클래식,특별전,개최,이안,운영,위원장,영화,상영,김희경,세이브더칠드런,본부장,남궁,응급의학,의사,초청,아동권리,스페셜토크,소개,이동윤,프로그래머,지역,영화인,참여,확대,고민,영화인,고민,자리,마련</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>영화제,춘천,sf,특별전,춘천영화제,이안,영화인,달시,각국,번역가,춘천시청,응급의학,남궁,홍보대사,스페셜토크,유튜버,본부장,세이브더칠드런,킴닥스,온라인,메타버스,가가린,김대환,기자회견,김아영,김진유,아동권리,어린이청소년영화,이동윤,롯데시네마춘천점,파켓,국립춘천박물관,한국독립영화들,김희경,한국,개막작</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>[춘천]국내 유일 SF영화제를 표방하는 춘천영화제가 명칭을 ‘춘천SF영화제'로 바꾸고 오는 30일 개막한다.
 (사)춘천영화제는 1일 춘천시청에서 기자회견을 열고 홍보대사에 배우 지대한, 유튜버 킴닥스를 위촉했다. 이어 영화‘기생충' 번역가 달시 파켓, 김대환 김진유 감독 등으로 구성된 영화제 심사위원, 김아영 감독의 포스터 등을 공개했다. 
 올 영화..</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>http://www.kwnews.co.kr/nView.asp?s=501&amp;aid=221090100138</t>
         </is>
       </c>
-      <c r="S15"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="S23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>01300201.20210901024316002</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>20210901</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>강원일보</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>최기영</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>“메타버스에 올라타라” 지자체 선점 경쟁</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>지역&gt;경남</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t xml:space="preserve"> 지역&gt;충남</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve"> 지역&gt;울산</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>세종,송철호</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>충북,대전,춘천시,충남,강원도,미래도,전남,충청,강원</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>㈜더픽트,강원도인재개발원,청년창업,대덕,강원지역,전남도,춘천시,울산시,강원도,강원대,광역자치단체,인천시</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>메타버스,경쟁,지자체,선점,춘천시,현실,가상공간,미래,산업,발굴,육성,전략,강좌,공무원,대상,열공,모드,지역,가세,주도,다툼,속보,강원도,춘천시,전국,지자체,메타버스,Metaverse,지역,특화,산업,연계,본보,8월,일자,보도,열공,모드,강원도,춘천시,메타버스,미래,산업,육성,전략,발굴,기성세대,메타,버스,강좌,공무원들,대상,준비,강원도,9월,연구용역,강원,메타,버스,산업,활성,기본,계획,수립,용역,발주,구축,강원,메타버스,종합계획,모델,자체,서비스,발굴,강원도인재개발원,핵심리더과정,메타버스,이해,체험,강좌,개설,강원도,조성,투자기업,강원,벤처펀드,청년,창업,투자,기업,메타버스,가상,박람회,콘텐츠,더픽트,선정,강원,지역,춘천시,관심,춘천시,강원대,협약,메타,버스,산업,육성,전략,수립,용역,체결,연구용역,미래,도시,춘천시,선제,전략,메타버스,XR,확장현실,인력,양성,교육,프로그램,방안,모색,XR,가상현실,VR,증강현실,AR,의미,전국,지자체,경쟁적,메타버스,구축,인천시,현실,쌍둥이,도시,메타버스상,구상,울산시,송철호,시장,주재,회의,메타,버스,플랫폼,게더타운,가상회의실,대전,충남,충북,세종,충청권,광역자치단체,대덕,연구기관들,협업,메타버스,생태,구축기,전남도,연내,메타,버스,전남,관광,홍보관,계획,강원도,관계자,데이터,네트워크,인공지능,메타버스,ICT산업,제조,의료,교육,유통,경제,영역,확산,국가,생산,혁신,영향</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>메타버스,춘천시,강원도,강원,메타,연구용역,지자체,벤처펀드,홍보관,공무원,열공</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>道-춘천시 ‘현실 같은 가상공간' 미래신산업 육성 전략 발굴
 공무원 대상 강좌 등 열공 모드 타 지역도 주도권 다툼 가세
@@ -1339,393 +1972,12 @@
 강원도와 춘천시는 메타버스를 미래신산업으로 육성하기 위한 전략 발굴에 나섰..</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>http://www.kwnews.co.kr/nView.asp?s=101&amp;aid=221083100090</t>
         </is>
       </c>
-      <c r="S16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>01300101.20210831001610001</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>20210831</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>강원도민일보</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>이연제</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>유천동에는 '메타버스' 카페 클럽이 있다</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>지역&gt;지역일반</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>강릉,유천동,강릉지역</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>유천동</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>유천동,메타버스,카페,클럽,가상,세계,친목,도모,플랫폼,아파트,주민,카페,개설,만남,진행,주민,추석,명절,노래자랑,계획,코로나19,모임,제한,장기화,강릉지역,메타버스,활용,카페,클럽,운영,눈길,강릉,유천동,아파트,입주민,코로나19여파,모임,제한,메타버스,플랫폼,이용,이웃들,소통,입주민,아파트,김영옥,메타버스,플랫폼,Ifland,강릉,선수촌,클럽,개설,입주민들,초대,클럽,이날,가상,각자,가상,캐릭터,이웃들,대화,소통,20일,카페,선수촌,개설,시민들,가상,만남,진행,메타버스,가공,추상,의미,메타,meta,현실세계,의미,유니버스,Universe,합성어,가상,세계,의미,코로나19,문화,본격화,메타버스,활용,김영옥,코로나,행사,아파트,자체,이웃들,기회,친목도모,시작,반응,추석,명절,입주민,노래자랑,개최,계획,주민들,메타버스,활용,모임,소통,이연제</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>메타버스,강릉,입주민,코로나19,선수촌,노래자랑,김영옥,이웃들,친목도모,메타,유천동,입주민들,합성어,현실세계,장기화,meta,강릉지역,시민들,본격화,코로나19여파,주민들,코로나</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>가상세계 비대면 친목도모 플랫폼아파트 주민 카페 개설 만남 진행주민 "추석명절 노래자랑 계획" 코로나19로 모임 제한 등이 장기화되자 강릉지역에서 메타버스를 활용한 카페와 클럽 등이 운영돼 눈길을 끌고 있다. 
-강릉 유천동의 한 아파트 입주민들은 코로나19여파로 대규모 모임 등이 제한되자 메타버스 플랫폼을 이용해 이웃들과 소통하고 있다. 
-해당 아파..</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>www.kado.net/news/articleView.html?idxno=1089139</t>
-        </is>
-      </c>
-      <c r="S17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>01300201.20210830024509001</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>20210830</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>강원일보</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>장현정</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>[특집]호반의 도시 춘천 ‘커피도시'로 새로운 도약 꿈꾼다</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>지역&gt;경남</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 지역&gt;제주</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> IT_과학&gt;콘텐츠</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>애니메이션박물관,서면,에티오피아,춘천시,일원,춘천커피 감성 어쿠스틱,제주도,산토리니,구봉산,공지천,춘천커피,신촌리,춘천커피도시 페스타,과테말라,대한민국,춘천,춘천커피도,라뜰리</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>강원정보문화진흥원,환경부,에티오피아,춘천시,네이버,강원정보문화진흥원장,춘천커피,세미나,춘천커피도시,호반,스타벅스,춘천,SKT,춘천커피도시박람회</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>호반,커피도시,도시,춘천,커피,도시,도약,18일,전시회,체험전,다채,환경,보호,캠페인,전개,예정,도시,춘천,커피도시,도약,춘천시,춘천커피도시,도시,브랜드,기념,9월,개막식,시작,9월,춘천,커피,도시,페스타,개최,coffee,춘천,렛츠,커피,춘천,주제,카페,집중,구봉산,일대,춘천시,일원,지역,커피,문화콘텐츠,마련,오프라인,커피,도시,춘천,출발,시민,관광객들,9월,19일,일원,주말,애니메이션,박물관,춘천커피도시박람회,진행,커피,생산국,과테말라,에티오피아,참가,박람회장,각국,커피,홍보자료,커피,홍보,자료,전시,로봇,커피,로봇커피,볼거리,업체,일반,먹거리,제공,계획,커피,체험,커피,특강,커피,세미나,커피,퀴즈쇼,무대공연,버스킹,매직,콘서트,프로그램,마련,춘천,대한민국,커피,역사다,춘천,커피,발상지,에티오피아,각별,인연,에티오피아,6,춘천,전투,공지천,에티오피아,대한민국,로스터리,커피숍,역사,간직,구봉산,일대,소양댐,공지천,신촌리,부근,커피거리,춘천시,700곳,커피,카페,커피,성업,산토리니,라뜰리에,김가,카페드220볼트,100만,관광객,명소,자리,소양댐,카페,감자,지역,명소,2030세대,국민,춘천카페,춘천커피,검색,SNS,닭갈비,막국수,먹거리,만큼,정착,플랫폼,춘천,커피,도시,메타,버스,행사,주관,강원정보문화진흥원,9월,4시,애니메이션박물관,야외무대,개막행사,30여곳,춘천,커피,업체,전시회,Coffee,춘천,진행,전시회,Coffee,춘천,커피향,로봇,커피,특별관,세계,커피,풍물전,커피,풍미,시민,참여,커피,체험전,춘천,유명,카페,어반,스케치,전시,춘천커피,감성,어쿠스틱,공연,문화행사,온라인,커피,페스타,축제,춘천커피도시,메타,버스,플랫폼,구축,프로그램,CT,완벽,조합,ICT,문화,콘텐츠,메타버스,콘텐츠,연동,정보,제공,VR,AR,플랫폼,구축,춘천,커피,메타,버스,플랫폼,매핑,춘천시,커피,전문점,네이버,플레이스,동기화,SNS,실시간,동기,특화,서비스,제공,업소,구축,100여개,카페,대상,VR,카페,콘텐츠,구축,서비스,지원,예정,6월,카페,참여,희망,모집,카페,참여,플랫폼,춘천,커피,도시,메타,버스,접속,모바일,PC,카페,정보,플랫폼,방문객들,소통,환경,보호,캠페인,전개,축제,SKT,연계,해피해빗,Happy,habit,환경,보호,캠페인,애니메이션,박물관,일원,진행,오프라인,행사,SKT,해피해빗,홍보존,설치,축제,기간,다회,고객,텀블러,이용,할인,혜택,제공,커피찌꺼기,커피포대,활용,리사이클,상품,환경선도,도시,춘천,노력,진행,SKT,연계,환경,보호,캠페인,해피해빗,Happ,habit,환경부,제주도,중심,스타벅스,다회용,사용,다회,텀블러,사용,시범,운영,김흥성,강원,정보,문화,진흥원장,코로나19,문화,예술,축제,다변화,시점,춘천,커피,도시,페스타,오프라인,축제</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>춘천,coffee,춘천커피도시,춘천시,에티오피아,해피해빗,오프라인,다회용,공지천,애니메이션박물관,habit,메타버스,만큼</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>18일까지 전시회 체험전 등 다채
-환경보호 캠페인 함께 전개 예정
-‘물의 도시' 춘천이 ‘커피도시'로 새로운 도약을 꿈꾼다.
- 춘천시가 ‘춘천커피도시'라는 새로운 도시 브랜드를 발표하고 이를 기념하기 위해 9월3일 오후 4시 개막식을 시작으로 9월18일까지 ‘춘천커피도시 페스타'를 개최한다. 
-‘Let's coffee 춘천(렛츠 커피 춘천)'을 주..</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>http://www.kwnews.co.kr/nView.asp?s=501&amp;aid=221082900052</t>
-        </is>
-      </c>
-      <c r="S18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>01300201.20210830024419001</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>20210830</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>강원일보</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>오석기</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>최양희 한림대총장 "4세대 대학은 열린대학 지역과 협력해 사회발전 중심에 서겠다"</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>사회&gt;교육_시험</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> IT_과학&gt;IT_과학일반</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>최양희,일송재단</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>강릉,프랑스,미국,옥천초교,일본,강원도,유니버시티4.0,춘천</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>삼성미래기술육성재단,구성원,서울대,IBM왓슨연구소,융합과학기술대학원장,카이스트,사회부,한림대총장,산학협력,이사회,미래창조과학부,정부,강원도,한림대,전자공학과,열린대학,이사,강릉중,한국전기통신연구소,실리콘밸리,인공지능(AI)위원회,컴퓨터연구소,ENST,한림대학교,한국정보과학회장,경기고,국립정보통신대,NTI연구소,메타,CNET연구소,선도대학</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>최양희,한림대,총장,대학,열린대학,지역,협력,사회,발전,중심,총장,한림대,선임,최양희,최양희,미래,창조,과학부,장관,일송재단,학교,법인,이사회,총장,한림대학교,미래,창조,과학부,장관,역임,최양희,서울대,명예,교수,선임,서울대,인공,지능,AI,위원장,활동,전문가,ICT,분야,최고,총장,부임,한림대,변화,혁신,기대감,컴퓨터연구소,서울대,컴퓨터,연구소,명예,교수,연구실,9월,취임,총장,신임,총장,포부,계획,대학,총장직,수락,전염병,확산,갈등,각종,격차,확대,위기,세계,시대,전환,44년,대학,기업,정부,경험,바탕,결과,당면,위기,인재,준비,국가,돌파,판단,한림대,지속적,혁신,고등교육,성공적,모델,제시,기여,생각,고비,대학,기본,역량,진단,위기,정원,감축,한림대,상황,진단,한림대,입학,충원율,수준,최고,99.9%,학생,중심,대학,조정,입학,학생,복수전공,이수,전과,자유,허용,신설,융합전공,시대,교육,효과적,제공,학과,정원,가변적,운용,탄력적,구조,한림대,특징,인구,감소,정원,조정,수용,가능,한림대,직면,현안,가지,취임,한림대,전반적,사항,파악,말씀,취임,대학,문제의식,신입,충원,물론,졸업생,취업,교직원들,처우,중심,구성원들,토론,발굴,내실,개선,최선,노력,과거,경험,바탕,정부,기업,지자체,시민,사회단체,교육기관,교류,성장,발전,대학,발전,자신,철학,한림대,이래,개교,성장,양적,질적,성장,성공적,글로벌,대학,평가,점수,안주,생각,대학,미션,진화,대학,교육,중심,2세대,중심,3세대,산학,협력,중심,대학,대학,변화,대학,사회변화,플랫폼,시민,지역,광장,역할,대학,의미,대학,강의,외부,외부기관,협력,사회발전,중심,대학모델,유니버시티4.0,대학,교육,성공,선도대학,한림대,학문간,융합,강조,한림대,대표,인지도,교육,플래그십,Flagship,조직,육성,권위자,인공,지능,최고,대학,교육,변화,무게,중심,예상,한림대,학생,1명,전공,교육,졸업,인공지능,AI,독립,전공,동시,전공,지원,플랫폼,역할,플랫폼,구축,다각적,노력,전공,IT,융합,창의적,교육,가능,교육,전반,계획,인공,지능,전문가,분야,발전,실력,인력,충원,기관,독립적,전임,인력,실현,가능,생각,방법,겸직,겸임,인재풀,POOL,커뮤니티,교육,프로젝트,공유,활용,개념,기업,대학간,상호,교류,돌파구,실리콘밸리,인재,대학,강의,대학교수,기업,역할,프로젝트,책임자,한림대,인재들,교류,소통,공유,대안,생각,화두,메타버스,Metaverse,대학,캠퍼스,결합,취임식,웃음,취임사,말씀,대학,방향,외부,소통,대학,번째,대학,의미,물리적,대학,방문,대학,개방,온라인,공간,활용,만족도,방법,메타버스,후보,상의,부탁,취임,정식,논의,메시지,전달,상태,한림대,총장,선임,준비,이사회,선임,차례,학교,방문,책임자,브리핑,자료,웃음,공부,강원도,지역,사회,한림대,가지,기대감,전망,직간접적,기회,소화,구상,전략,발전,노력,노력,취임,대학,구성원,협력,가속화,계획,강릉,출신,강원도,소감,지역사회,마디,강릉,중학교,직장,나라,강원도,춘천,위치,한림대,강원도,출신,성장,강원도민,관심,지원,덕분,생각,강원도,위상,예전,강원도민들,긍지,자부심,강원도,지역,바탕,성공,스토리,한림대,지원,오석기,사회,부장,최양희,총장,강릉,출신,한림대,출신,총장,옥천초교,강릉중,경기고,서울대,전자공학,졸업,카이스트,전자,공학,석사,프랑스,국립,정보,통신대,ENST,학위,전산학,박사,한국전기통신연구소,시작,프랑스,CNET,연구소,미국,IBM,왓슨연구소,일본,NTI,연구소,근무,서울대,교수,자리,이사장,삼성미래기술육성재단,초대,한국정보과학회장,서울대,융합,과학,대학원장,미래,창조,과학부,장관,역임,장관직,서울대,인공,지능,AI,위원회</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>한림대,서울대,최양희,강원도,프랑스,인공지능,연구소,전문가,일본,강릉,미국,책임자,이사회,메타버스</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>올 5월 학교법인 일송재단이 이사회를 열고 한림대학교 제11대 총장에 미래창조과학부 장관을 역임한 최양희(66) 서울대 명예교수를 선임했다. 최근까지 서울대 인공지능(AI)위원장으로 활동하며 국내 ICT 분야 최고 전문가로 손꼽히는 최 총장의 부임으로 한림대의 변화와 혁신에 대한 기대감이 높아지고 있다. 지난 24일 서울대 컴퓨터연구소에 있는 명예교수 ..</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>http://www.kwnews.co.kr/nView.asp?s=501&amp;aid=221082900109</t>
-        </is>
-      </c>
-      <c r="S19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>01300101.20210830001552001</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>20210830</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>강원도민일보</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>오세현</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>막국수 닭갈비 이어 지역 대표할 '춘천커피' 새 출발 알린다</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>IT_과학&gt;콘텐츠</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 지역&gt;경남</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 지역&gt;제주</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>서면,커피테마파크,애니메이션박물관,춘천 커피숍,춘천시,산토리니,구봉산,공지천,춘천커피도시 페스타,춘천커피도시,대한민국,춘천,소양강,춘천지역,레고랜드</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>춘천시장,강원정보문화진흥원,#춘천커피,춘천시,네이버,테마파크,강원정보문화진흥원장,커피전문점,춘천커피,세미나,삼악산로프웨이,춘천,SKT</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>막국수,닭갈비,지역,대표,춘천커피,출발,페스타,춘천,커피,도시,페스타,coffee,춘천,커피숍,로스터리,카페,춘천,설립,춘천,기준,년새,273곳,관광,활성,내달,커피,도시,페스타,개막,시민,참여,체험,공연,AR,구축,ICT,콘텐츠,접목,VR,AR,플랫폼,업소,메타버스,춘천시장,이재수,춘천,시장,커피도시,도시,브랜드,춘천,커피,역사성,대중성,ICT,커피,매개,문화,지역,성장,취지,춘천,출발,행사,마련,내달,3일,춘천,커피,도시,페스타,coffee,춘천,부제,행사,커피도시,춘천,잠재력,확인,대한민국,커피,역사,춘천,커피도시,표방,도시들,명성,춘천,커피,도시,대한민국,로스터리,커피숍,50여,춘천,구봉산,일대,소양강댐,공지천,서면,신촌리,부근,카페,성업,산토리니,라틀리에,김가,220볼트,관광객들,명소,소양강댐,위치,카페,감자,지역,춘천,지역,커피,전문점,2년,273곳,68%,해시태그,인스타그램,결과,춘천커피,44만,춘천닭갈비,20만,춘천막국수,1만,만큼,춘천,대표,먹거리,자리,커피,지역,대표,산업,육성,시도,안팎,지역,사회,중심,춘천,커피테마파크,조성,추진,진척,코로나19,타격,커피,자영업자,춘천시,대대적,브랜드,마케팅,외지,관광객들,지역경제,견인,여론,조성,레고랜드,테마파크,삼악산로프웨이,개장,춘천,가치,생활,문화,축제,지적,이재수,춘천,시장,춘천,스토리,카페,커피,전문가,호수,천혜,자연조건,수도권,교통수단,완벽,커피도시,카페,단순,음료,분위기,문화콘텐츠,공간,청년들,창업,로스터리,카페숍,문화콘텐츠,지역,경제,커피,산업화,커피,산업,커피도시,페스타,출발,춘천,커피,도시,내달,춘천,커피,도시,페스타,커피,도시,춘천,행사,강원정보문화진흥원,주관,행사,애니메이션박물관,야외무대,개막행사,19일,지역,카페,애니메이션박물관,명인들,춘천,지역,커피,명인,커피,특별관,로봇,커피,세계커피,풍물전,커피향,풍미,체험전,시민,참여,커피,춘천,유명,카페,어반,스케치,전시,어쿠스틱,공연,시민들,커피,세상,커피,마스터,세미나,워터,소믈리,세미나,볼거리,ICT,춘천커피,춘천,커피,도시,페스타,특징,ICT,콘텐츠,접목,메타버스,콘텐츠,연동,정보,제공,VRㆍAR,플랫폼,구축,춘천,커피,메타,버스,플랫폼,맵핑,춘천시,커피,전문점,네이버,플레이스,동기화,SNS,실시간,동기,특화,서비스,제공,업소,구축,100여개,카페,대상,VR,카페,콘텐츠,구축,서비스,지원,예정,6월,카페,참여,희망,모집,카페,참여,플랫폼,춘천,커피,도시,메타,버스,접속,모바일,PC,카페,정보,플랫폼,방문객들,소통,SKT,연계,환경캠페인,진행,애니메이션,박물관,일원,오프라인,행사,홍보존,SKT,해피,해빗,설치,축제기간,다회용,축제,기간,다회,고객,텀블러,이용,할인,혜택,제공,커피찌꺼기,커피포대,활용,리사이클,상품,환경,선도,도시,춘천,노력,진행,김흥성,강원,정보,문화,진흥원장,행사,생활,문화,축제,코로나19,상황,ICT콘텐츠,차별성,대한민국,커피축제,진행,춘천,커피,콘텐츠,문화,지역,산업,연결,핵심</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>춘천,ict,커피도시,메타버스,로스터리,대한민국,춘천시,춘천커피,애니메이션박물관,소양강댐,273곳</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>춘천 커피도시 페스타 Let's coffee 춘천 국내 첫 로스터리 카페 춘천 설립춘천 커피숍 지난해 기준 672곳2년새 273곳 늘어 관광 활성화내달 3일 커피도시 페스타 개막시민 참여형 체험 공연 등 다채ICT 콘텐츠 접목 VR AR 플랫폼올해 100개 업소 메타버스 구축 지난 7월 이재수 춘천시장은 커피도시라는 새로운 도시 브랜드를 발표했다.춘천이..</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>www.kado.net/news/articleView.html?idxno=1088920</t>
-        </is>
-      </c>
-      <c r="S20"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>01300201.20210826024336001</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>20210826</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>강원일보</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>최영재</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>[강원경제인 대상 수상기업]지역주민 108명 채용 도 프랜차이즈 최초 가맹점 120호 돌파</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>경제&gt;취업_창업</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 경제&gt;유통</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 지역&gt;충북</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>홍천,강원도,홍천고</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>보건복지부,강원경제,(주)산돌식품,(주)성백F&amp;S,산돌식품,사회복지,(주)산돌식품이,(주),마켓컬리,웰빙푸드,우수사원</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>채용,지역,주민,프랜차이즈,돌파,가맹점,일자리,창출상,산돌식품,15회,도내,경제,최고,권위,강원경제,대상,5개,선정,본보,보도,일자,기업,역대,수상,기업,중견기업,글로벌,강소,기업,발돋움,바이오,메타버스,기업,선정,수상,기업,기대감,7회,수상,기업,창업,성장,사업,분야,전략,코로나,상황,가정식,출시,매출,64.8%,기록,지정,고령자,친화,기업,장학금,기탁,지역,복지,힘써,가족,웰빙푸드,제조,산돌식품이,전문기업,대표,먹거리,식품,가공,전문,기업,식품,식품,생산,지역,108명,고용,성과,강원경제,기업,대상,일자리,창출,수상,선정,생면류,숙면류,떡류,생산,해썹,HACCP,인증,기업,실적,코로나19,상황,매출,급등,시설,투자,일궈,산돌식품,창업,19년,국민,선호,전문기업,먹거리,식품,가공,제조,전문,기업,성장,발전,홍천,식품제품,2018년,2년,107억,매출액,달성,성과,2020년,코로나19,상황,가정,신제품,출시,매출,기록,매출,64.8%,가량,증가,저력,자회사,소스,육수기업,아람식품,25억,프랜차이즈,떡볶이,성백F&amp;S,55억,매출,기록,매출액,달성,발전,경제,산업,기업성장,기여,제품개발,제조,시설,투자,활성화,지속적,기업,성과,비결,수출라인,밀키트,제품,생산,증대,효과,고용,창출,2019년,산돌식품,14명,아람,식품,성백F&amp;S,5명,간접인원,27명,채용,고용,창출,발전,지역,산업,이바지,직원,복지,사회,공헌,활동,직원,복지,향상,사회공헌,노력,기업,2월,강당,회사,직원,포상제,우수사원,모범사원,상장,상금,지급,장기,근속,사원,근속패,50만,100만,상금,시상,학자금,성과급,교통비,전달,직원,생일,쿠폰,제공,배려,복리,후생,지원,기업,문화,정착,사내,구내식당,휴게실,탈의실,체력단련실,세탁실,운영,7대,안마기,설치,노사,협의체,운영,노사,화합,노사,신뢰감,조성,노사,분쟁,사전,예방,관리,고충,처리,상담원,운영,산돌식품,지역,인재,육성,홍천고,홍천여고,지역,고등학교,장학금,기탁,사회복지시설,먹거리,식품,제공,직원들,향상,장기,업무,청년내일채움,강원형,안심공제,사업,지원,업무,수양,지역,강사,초빙,강의,지역,고령자,고용,창출,일자리,제공,보건복지부,친화기업,고령자,친화,기업,지정,33떡볶이,돌파,가맹점,청정지역,홍천,위치,기업,생산력,바탕,육수,소스,즉석식품,건강기능식품,생산,공급,판매,가격,품질경쟁력,확보,33떡볶이,원팩시스템,5분,음식조리,가능,초보자,조리,가능,인력운영,효율성,주목,산돌식품,외식브랜드,33떡볶이,강원도,프랜차이즈,기업,돌파,해외,포함,가맹점,금자탑,떡볶이,밀키트,제품,마켓컬리,홈쇼핑,온라인,판매,매출액,70%,30%,2년,2배,증가,제품들,코로나19,시대,소비자들,입맛,매출,급증,33떡볶이,프랜차이즈,분식,대표,전문브랜드,부상,산돌식품,매출액,급증,100억,3,967,부지,2공장,신축할,예정,산돌식품,직원,시대,포스트,코로나,최적화,신제품,지속적,트렌드,신규,비즈니스,식품,다짐</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>산돌식품,매출액,가맹점,코로나19,33떡볶이,고령자,일자리,코로나,홍천,신제품,강원경제,아람식품,힘써</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>올해로 15회째를 맞은 도내 경제계 최고 권위의 상인 ‘강원경제인 대상'의 5개 부문 7개 수상 기업이 선정(본보 지난 23일자 2면 보도)됐다. 역대 수상 기업 상당수가 중견기업 및 글로벌 강소기업으로 발돋움했다. 특히 올해는 바이오뿐만 아니라 메타버스 등 IT 관련 기업 등이 선정돼 수상 기업에 대한 기대감이 크다. 앞으로 7회에 걸쳐 올해 수상 기..</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>http://www.kwnews.co.kr/nView.asp?s=401&amp;aid=221082500049</t>
-        </is>
-      </c>
-      <c r="S21"/>
+      <c r="S24"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
